--- a/常用网址.xlsx
+++ b/常用网址.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -376,19 +376,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,7 +396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -404,6 +404,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2323</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -417,7 +422,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -430,7 +435,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/常用网址.xlsx
+++ b/常用网址.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,13 +31,37 @@
   </si>
   <si>
     <t>http://www.stats.gov.cn/tjsj/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tianyancha.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.bjzl.org.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁协会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家企业信息公示系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天眼查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gsxt.saic.gov.cn/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,16 +76,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -69,15 +107,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -376,43 +436,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>2323</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
